--- a/202504_HL_Maintain_Report.xlsx
+++ b/202504_HL_Maintain_Report.xlsx
@@ -11,16 +11,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AK$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AK$55</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
-  <si>
-    <t>萊爾富 工作統計表  篩選月份：202504   (  製表日期:2025-04-10  )</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
+  <si>
+    <t>萊爾富 工作統計表  篩選月份：202504   (  製表日期:2025-04-11  )</t>
   </si>
   <si>
     <t>項次</t>
@@ -999,6 +999,51 @@
     <t>2025-04-10 16:20:00</t>
   </si>
   <si>
+    <t>E3752114041001</t>
+  </si>
+  <si>
+    <t>板橋豫章店</t>
+  </si>
+  <si>
+    <t>2025-04-10 15:41:18</t>
+  </si>
+  <si>
+    <t>HLL6</t>
+  </si>
+  <si>
+    <t>HL-LIFE-ET IC晶片讀卡機</t>
+  </si>
+  <si>
+    <t>L601</t>
+  </si>
+  <si>
+    <t>讀卡異常或無反應</t>
+  </si>
+  <si>
+    <t>門市反應LIFE ET IC晶片讀卡機測試健保卡顯示伺服器錯誤，遠端重啟MMK後先插入IC晶片卡仍異常，未顯示讀取紅燈，需請台芝到店協助(\'/mmk00L10\'應用程式發生伺服器錯誤)
+4/10 16:30 門市進線告知門市電話故障請撥手機，協助遠端重啟MMK後5分鐘再去電..愷
+4/10 16:07 致電門市不通、致電手機轉語音.致電區經理轉達門市再進線客服..廖
+4/10 15:54 致電門市不通、致電手機轉語音..吳</t>
+  </si>
+  <si>
+    <t>THILF03752</t>
+  </si>
+  <si>
+    <t>2025-04-10 16:40:05</t>
+  </si>
+  <si>
+    <t>2025-04-11 14:40:00</t>
+  </si>
+  <si>
+    <t>2025-04-11 15:30:00</t>
+  </si>
+  <si>
+    <t>2025-04-11 20:40:00</t>
+  </si>
+  <si>
+    <t>更換IC 讀卡機</t>
+  </si>
+  <si>
     <t>八里聖心店</t>
   </si>
   <si>
@@ -1027,6 +1072,87 @@
   </si>
   <si>
     <t>2025-04-10 18:06:00</t>
+  </si>
+  <si>
+    <t>泰山新民店</t>
+  </si>
+  <si>
+    <t>新北市泰山區</t>
+  </si>
+  <si>
+    <t>THILF04656</t>
+  </si>
+  <si>
+    <t>2025-04-11 10:45:50</t>
+  </si>
+  <si>
+    <t>2025-04-11 10:00:00</t>
+  </si>
+  <si>
+    <t>2025-04-11 10:50:00</t>
+  </si>
+  <si>
+    <t>北縣泰富店</t>
+  </si>
+  <si>
+    <t>THILF03606</t>
+  </si>
+  <si>
+    <t>2025-04-11 11:45:16</t>
+  </si>
+  <si>
+    <t>2025-04-11 11:00:00</t>
+  </si>
+  <si>
+    <t>2025-04-11 11:50:00</t>
+  </si>
+  <si>
+    <t>D024</t>
+  </si>
+  <si>
+    <t>三重三民店</t>
+  </si>
+  <si>
+    <t>THILF0D024</t>
+  </si>
+  <si>
+    <t>2025-04-11 12:05:02</t>
+  </si>
+  <si>
+    <t>2025-04-11 12:03:00</t>
+  </si>
+  <si>
+    <t>三重田心店</t>
+  </si>
+  <si>
+    <t>THILF03676</t>
+  </si>
+  <si>
+    <t>2025-04-11 13:10:47</t>
+  </si>
+  <si>
+    <t>2025-04-11 12:10:00</t>
+  </si>
+  <si>
+    <t>2025-04-11 13:10:00</t>
+  </si>
+  <si>
+    <t>2025-04-11 15:30:27</t>
+  </si>
+  <si>
+    <t>板橋玉川店</t>
+  </si>
+  <si>
+    <t>THILF03977</t>
+  </si>
+  <si>
+    <t>2025-04-11 15:51:22</t>
+  </si>
+  <si>
+    <t>2025-04-11 15:34:00</t>
+  </si>
+  <si>
+    <t>2025-04-11 15:50:00</t>
   </si>
 </sst>
 </file>
@@ -1440,10 +1566,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK48"/>
+  <dimension ref="A1:AK55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AC45" sqref="AC45"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5272,38 +5398,58 @@
         <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C47" s="7">
-        <v>2025041383</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+        <v>2025041378</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="F47" s="7">
-        <v>4243</v>
+        <v>3752</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>326</v>
+      </c>
       <c r="Q47" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>51</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="T47" s="7">
         <v>1</v>
@@ -5312,36 +5458,34 @@
         <v>53</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="X47" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y47" s="7"/>
+        <v>330</v>
+      </c>
+      <c r="Y47" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="Z47" s="7">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7" t="s">
         <v>58</v>
       </c>
       <c r="AC47" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD47" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="AD47" s="7"/>
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
       <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
-      <c r="AJ47" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AJ47" s="7"/>
       <c r="AK47" s="7" t="s">
         <v>60</v>
       </c>
@@ -5354,15 +5498,15 @@
         <v>61</v>
       </c>
       <c r="C48" s="3">
-        <v>2025041385</v>
+        <v>2025041383</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3">
-        <v>3458</v>
+        <v>4243</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>286</v>
@@ -5374,9 +5518,9 @@
       <c r="M48" s="4"/>
       <c r="N48" s="3"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
+      <c r="P48" s="10"/>
       <c r="Q48" s="3" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>51</v>
@@ -5391,23 +5535,23 @@
         <v>53</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AC48" s="4" t="s">
+      <c r="AC48" s="10" t="s">
         <v>70</v>
       </c>
       <c r="AD48" s="3" t="s">
@@ -5422,6 +5566,557 @@
         <v>60</v>
       </c>
       <c r="AK48" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2025041385</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7">
+        <v>3458</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="T49" s="7">
+        <v>1</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="W49" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="X49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC49" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK49" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2025041432</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3">
+        <v>4656</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T50" s="3">
+        <v>1</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="X50" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC50" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK50" s="3"/>
+    </row>
+    <row r="51" spans="1:37">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="7">
+        <v>2025041452</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7">
+        <v>3606</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T51" s="7">
+        <v>1</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V51" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="W51" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="X51" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC51" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2025041455</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T52" s="3">
+        <v>1</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3">
+        <v>1.1</v>
+      </c>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC52" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK52" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="7">
+        <v>2025041481</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7">
+        <v>3676</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="T53" s="7">
+        <v>1</v>
+      </c>
+      <c r="U53" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V53" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="W53" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="X53" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC53" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD53" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK53" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2025041533</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3">
+        <v>3752</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T54" s="3">
+        <v>1</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC54" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK54" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="7">
+        <v>2025041547</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7">
+        <v>3977</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="T55" s="7">
+        <v>1</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V55" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="W55" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="X55" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC55" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK55" s="7" t="s">
         <v>60</v>
       </c>
     </row>
